--- a/Put Portfolios/One Month_TwoSigma.xlsx
+++ b/Put Portfolios/One Month_TwoSigma.xlsx
@@ -469,16 +469,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-989436.730130323</v>
+        <v>-986487.1946236491</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>582960.4785589977</v>
+        <v>544804.4168332688</v>
       </c>
       <c r="E2" t="n">
-        <v>-406476.2515713252</v>
+        <v>-441682.7777903803</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-918762.6779781571</v>
+        <v>-917981.1394414512</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>512877.5003689409</v>
+        <v>479962.8082025978</v>
       </c>
       <c r="E3" t="n">
-        <v>-405885.1776092162</v>
+        <v>-438018.3312388534</v>
       </c>
     </row>
     <row r="4">
@@ -503,16 +503,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-848088.6258259912</v>
+        <v>-849475.0842592533</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>443656.1361892543</v>
+        <v>417337.3845484682</v>
       </c>
       <c r="E4" t="n">
-        <v>-404432.4896367369</v>
+        <v>-432137.6997107852</v>
       </c>
     </row>
     <row r="5">
@@ -520,16 +520,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-777414.5736738251</v>
+        <v>-780969.0290770555</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>376080.5761445722</v>
+        <v>357645.3585419968</v>
       </c>
       <c r="E5" t="n">
-        <v>-401333.9975292529</v>
+        <v>-423323.6705350587</v>
       </c>
     </row>
     <row r="6">
@@ -537,16 +537,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-706740.5215216592</v>
+        <v>-712462.9738948577</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>311249.334741941</v>
+        <v>301589.6717097988</v>
       </c>
       <c r="E6" t="n">
-        <v>-395491.1867797182</v>
+        <v>-410873.3021850589</v>
       </c>
     </row>
     <row r="7">
@@ -554,16 +554,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-636066.4693694933</v>
+        <v>-643956.9187126597</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>250474.7193100926</v>
+        <v>249788.0716214628</v>
       </c>
       <c r="E7" t="n">
-        <v>-385591.7500594007</v>
+        <v>-394168.8470911969</v>
       </c>
     </row>
     <row r="8">
@@ -571,16 +571,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-565392.4172173274</v>
+        <v>-575450.8635304619</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>195087.0582674423</v>
+        <v>202714.1631296072</v>
       </c>
       <c r="E8" t="n">
-        <v>-370305.3589498851</v>
+        <v>-372736.7004008548</v>
       </c>
     </row>
     <row r="9">
@@ -588,16 +588,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-494718.3650651615</v>
+        <v>-506944.8083482641</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>146200.4067245795</v>
+        <v>160659.70250045</v>
       </c>
       <c r="E9" t="n">
-        <v>-348517.958340582</v>
+        <v>-346285.1058478141</v>
       </c>
     </row>
     <row r="10">
@@ -605,16 +605,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-424044.3129129956</v>
+        <v>-438438.7531660662</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>104515.6286611385</v>
+        <v>123721.6371589445</v>
       </c>
       <c r="E10" t="n">
-        <v>-319528.684251857</v>
+        <v>-314717.1160071217</v>
       </c>
     </row>
     <row r="11">
@@ -622,16 +622,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-353370.2607608296</v>
+        <v>-369932.6979838684</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>70219.41280707813</v>
+        <v>91812.04858423567</v>
       </c>
       <c r="E11" t="n">
-        <v>-283150.8479537515</v>
+        <v>-278120.6493996327</v>
       </c>
     </row>
     <row r="12">
@@ -639,16 +639,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-282696.2086086637</v>
+        <v>-301426.6428016705</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>42997.47243257864</v>
+        <v>64685.4942794268</v>
       </c>
       <c r="E12" t="n">
-        <v>-239698.736176085</v>
+        <v>-236741.1485222437</v>
       </c>
     </row>
     <row r="13">
@@ -656,16 +656,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-212022.1564564978</v>
+        <v>-232920.5876194726</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>22140.13936557849</v>
+        <v>41976.65671461845</v>
       </c>
       <c r="E13" t="n">
-        <v>-189882.0170909193</v>
+        <v>-190943.9309048541</v>
       </c>
     </row>
     <row r="14">
@@ -673,16 +673,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-141348.1043043318</v>
+        <v>-164414.5324372748</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6695.917335763736</v>
+        <v>23241.40862297486</v>
       </c>
       <c r="E14" t="n">
-        <v>-134652.1869685681</v>
+        <v>-141173.1238142999</v>
       </c>
     </row>
     <row r="15">
@@ -690,16 +690,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-70674.05215216592</v>
+        <v>-95908.47725507691</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-4372.772845355145</v>
+        <v>7995.770728413785</v>
       </c>
       <c r="E15" t="n">
-        <v>-75046.82499752106</v>
+        <v>-87912.70652666313</v>
       </c>
     </row>
     <row r="16">
@@ -707,16 +707,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-27402.42207287905</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-12064.00051046179</v>
+        <v>-4250.89667133622</v>
       </c>
       <c r="E16" t="n">
-        <v>-12064.00051046179</v>
+        <v>-31653.31874421527</v>
       </c>
     </row>
     <row r="17">
@@ -724,16 +724,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>70674.05215216592</v>
+        <v>41103.63310931881</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-17255.05091362816</v>
+        <v>-13970.28805257787</v>
       </c>
       <c r="E17" t="n">
-        <v>53419.00123853776</v>
+        <v>27133.34505674095</v>
       </c>
     </row>
     <row r="18">
@@ -741,16 +741,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>141348.1043043318</v>
+        <v>109609.6882915167</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-20664.45136107706</v>
+        <v>-21597.45791055613</v>
       </c>
       <c r="E18" t="n">
-        <v>120683.6529432548</v>
+        <v>88012.23038096054</v>
       </c>
     </row>
     <row r="19">
@@ -758,16 +758,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>212022.1564564978</v>
+        <v>178115.7434737145</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-22847.46881352098</v>
+        <v>-27520.33610708088</v>
       </c>
       <c r="E19" t="n">
-        <v>189174.6876429768</v>
+        <v>150595.4073666336</v>
       </c>
     </row>
     <row r="20">
@@ -775,16 +775,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>282696.2086086637</v>
+        <v>246621.7986559124</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-24212.56097262751</v>
+        <v>-32075.18343470259</v>
       </c>
       <c r="E20" t="n">
-        <v>258483.6476360362</v>
+        <v>214546.6152212098</v>
       </c>
     </row>
     <row r="21">
@@ -792,16 +792,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>353370.2607608296</v>
+        <v>315127.8538381102</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-25047.64185800275</v>
+        <v>-35546.5167697529</v>
       </c>
       <c r="E21" t="n">
-        <v>328322.6189028269</v>
+        <v>279581.3370683573</v>
       </c>
     </row>
     <row r="22">
@@ -809,16 +809,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>424044.3129129956</v>
+        <v>383633.9090203081</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-25548.20083362178</v>
+        <v>-38170.08659593859</v>
       </c>
       <c r="E22" t="n">
-        <v>398496.1120793738</v>
+        <v>345463.8224243695</v>
       </c>
     </row>
     <row r="23">
@@ -826,16 +826,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>494718.3650651615</v>
+        <v>452139.9642025059</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-25842.64310867701</v>
+        <v>-40137.68958333765</v>
       </c>
       <c r="E23" t="n">
-        <v>468875.7219564845</v>
+        <v>412002.2746191683</v>
       </c>
     </row>
     <row r="24">
@@ -843,16 +843,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>565392.4172173274</v>
+        <v>520646.0193847038</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-26012.85130643726</v>
+        <v>-41602.86029687145</v>
       </c>
       <c r="E24" t="n">
-        <v>539379.5659108901</v>
+        <v>479043.1590878324</v>
       </c>
     </row>
     <row r="25">
@@ -860,16 +860,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>636066.4693694933</v>
+        <v>589152.0745669017</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-26109.67309068274</v>
+        <v>-42686.75091417557</v>
       </c>
       <c r="E25" t="n">
-        <v>609956.7962788106</v>
+        <v>546465.3236527261</v>
       </c>
     </row>
     <row r="26">
@@ -877,16 +877,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>706740.5215216592</v>
+        <v>657658.1297490995</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-26163.93760492847</v>
+        <v>-43483.74228148611</v>
       </c>
       <c r="E26" t="n">
-        <v>680576.5839167307</v>
+        <v>614174.3874676134</v>
       </c>
     </row>
     <row r="27">
@@ -894,16 +894,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>777414.5736738251</v>
+        <v>726164.1849312974</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-26193.9368079612</v>
+        <v>-44066.51858443201</v>
       </c>
       <c r="E27" t="n">
-        <v>751220.6368658639</v>
+        <v>682097.6663468655</v>
       </c>
     </row>
   </sheetData>
@@ -957,16 +957,16 @@
         <v>30</v>
       </c>
       <c r="B2" t="n">
-        <v>-1009921.962638197</v>
+        <v>-1059392.721239566</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>604686.7235193221</v>
+        <v>612422.837663063</v>
       </c>
       <c r="E2" t="n">
-        <v>-405235.239118875</v>
+        <v>-446969.8835765031</v>
       </c>
     </row>
     <row r="3">
@@ -974,16 +974,16 @@
         <v>31</v>
       </c>
       <c r="B3" t="n">
-        <v>-963488.7689536823</v>
+        <v>-1016152.202005298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>559397.3358842055</v>
+        <v>571902.862059198</v>
       </c>
       <c r="E3" t="n">
-        <v>-404091.4330694767</v>
+        <v>-444249.3399461001</v>
       </c>
     </row>
     <row r="4">
@@ -991,16 +991,16 @@
         <v>32</v>
       </c>
       <c r="B4" t="n">
-        <v>-917055.5752691675</v>
+        <v>-972911.6827710301</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>514664.7436724458</v>
+        <v>532136.861338568</v>
       </c>
       <c r="E4" t="n">
-        <v>-402390.8315967217</v>
+        <v>-440774.8214324621</v>
       </c>
     </row>
     <row r="5">
@@ -1008,16 +1008,16 @@
         <v>33</v>
       </c>
       <c r="B5" t="n">
-        <v>-870622.3815846527</v>
+        <v>-929671.1635367621</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>470666.1851147385</v>
+        <v>493242.497808507</v>
       </c>
       <c r="E5" t="n">
-        <v>-399956.1964699142</v>
+        <v>-436428.6657282551</v>
       </c>
     </row>
     <row r="6">
@@ -1025,16 +1025,16 @@
         <v>34</v>
       </c>
       <c r="B6" t="n">
-        <v>-824189.1879001379</v>
+        <v>-886430.6443024941</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>427600.5020688454</v>
+        <v>455336.2644986401</v>
       </c>
       <c r="E6" t="n">
-        <v>-396588.6858312924</v>
+        <v>-431094.379803854</v>
       </c>
     </row>
     <row r="7">
@@ -1042,16 +1042,16 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>-777755.994215623</v>
+        <v>-843190.1250682261</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>385681.159306288</v>
+        <v>418530.2743451419</v>
       </c>
       <c r="E7" t="n">
-        <v>-392074.834909335</v>
+        <v>-424659.8507230842</v>
       </c>
     </row>
     <row r="8">
@@ -1059,16 +1059,16 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>-731322.8005311083</v>
+        <v>-799949.6058339581</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>345127.4990771152</v>
+        <v>382929.2781403388</v>
       </c>
       <c r="E8" t="n">
-        <v>-386195.3014539931</v>
+        <v>-417020.3276936193</v>
       </c>
     </row>
     <row r="9">
@@ -1076,16 +1076,16 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>-684889.6068465934</v>
+        <v>-756709.08659969</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>306155.0211048632</v>
+        <v>348628.051261787</v>
       </c>
       <c r="E9" t="n">
-        <v>-378734.5857417302</v>
+        <v>-408081.035337903</v>
       </c>
     </row>
     <row r="10">
@@ -1093,16 +1093,16 @@
         <v>38</v>
       </c>
       <c r="B10" t="n">
-        <v>-638456.4131620786</v>
+        <v>-713468.5673654221</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>268965.5739222319</v>
+        <v>315709.2502861379</v>
       </c>
       <c r="E10" t="n">
-        <v>-369490.8392398467</v>
+        <v>-397759.3170792843</v>
       </c>
     </row>
     <row r="11">
@@ -1110,16 +1110,16 @@
         <v>39</v>
       </c>
       <c r="B11" t="n">
-        <v>-592023.2194775639</v>
+        <v>-670228.048131154</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>233738.312537697</v>
+        <v>284241.8000348282</v>
       </c>
       <c r="E11" t="n">
-        <v>-358284.9069398668</v>
+        <v>-385986.2480963258</v>
       </c>
     </row>
     <row r="12">
@@ -1127,16 +1127,16 @@
         <v>40</v>
       </c>
       <c r="B12" t="n">
-        <v>-545590.025793049</v>
+        <v>-626987.5288968862</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>200622.1398059848</v>
+        <v>254279.8331757253</v>
       </c>
       <c r="E12" t="n">
-        <v>-344967.8859870642</v>
+        <v>-372707.6957211609</v>
       </c>
     </row>
     <row r="13">
@@ -1144,16 +1144,16 @@
         <v>41</v>
       </c>
       <c r="B13" t="n">
-        <v>-499156.8321085342</v>
+        <v>-583747.009662618</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>169730.1392022292</v>
+        <v>225862.1709402024</v>
       </c>
       <c r="E13" t="n">
-        <v>-329426.692906305</v>
+        <v>-357884.8387224157</v>
       </c>
     </row>
     <row r="14">
@@ -1161,16 +1161,16 @@
         <v>42</v>
       </c>
       <c r="B14" t="n">
-        <v>-452723.6384240194</v>
+        <v>-540506.4904283501</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>141136.2649476393</v>
+        <v>199012.3064569125</v>
       </c>
       <c r="E14" t="n">
-        <v>-311587.3734763801</v>
+        <v>-341494.1839714375</v>
       </c>
     </row>
     <row r="15">
@@ -1178,16 +1178,16 @@
         <v>43</v>
       </c>
       <c r="B15" t="n">
-        <v>-406290.4447395046</v>
+        <v>-497265.9711940821</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>114874.318781514</v>
+        <v>173738.8323405264</v>
       </c>
       <c r="E15" t="n">
-        <v>-291416.1259579906</v>
+        <v>-323527.1388535557</v>
       </c>
     </row>
     <row r="16">
@@ -1195,16 +1195,16 @@
         <v>44</v>
       </c>
       <c r="B16" t="n">
-        <v>-359857.2510549898</v>
+        <v>-454025.4519598141</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>90939.03993827099</v>
+        <v>150036.2414234223</v>
       </c>
       <c r="E16" t="n">
-        <v>-268918.2111167188</v>
+        <v>-303989.2105363918</v>
       </c>
     </row>
     <row r="17">
@@ -1212,16 +1212,16 @@
         <v>45</v>
       </c>
       <c r="B17" t="n">
-        <v>-313424.057370475</v>
+        <v>-410784.9327255461</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>69288.98392750793</v>
+        <v>127886.0232417857</v>
       </c>
       <c r="E17" t="n">
-        <v>-244135.073442967</v>
+        <v>-282898.9094837603</v>
       </c>
     </row>
     <row r="18">
@@ -1229,16 +1229,16 @@
         <v>46</v>
       </c>
       <c r="B18" t="n">
-        <v>-266990.8636859602</v>
+        <v>-367544.4134912781</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>49850.77342499638</v>
+        <v>107257.9780972471</v>
       </c>
       <c r="E18" t="n">
-        <v>-217140.0902609638</v>
+        <v>-260286.435394031</v>
       </c>
     </row>
     <row r="19">
@@ -1246,16 +1246,16 @@
         <v>47</v>
       </c>
       <c r="B19" t="n">
-        <v>-220557.6700014453</v>
+        <v>-324303.89425701</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>32524.26870505148</v>
+        <v>88111.67405544764</v>
       </c>
       <c r="E19" t="n">
-        <v>-188033.4012963939</v>
+        <v>-236192.2202015624</v>
       </c>
     </row>
     <row r="20">
@@ -1263,16 +1263,16 @@
         <v>48</v>
       </c>
       <c r="B20" t="n">
-        <v>-174124.4763169306</v>
+        <v>-281063.375022742</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>17188.21691450337</v>
+        <v>70397.9789323185</v>
       </c>
       <c r="E20" t="n">
-        <v>-156936.2594024272</v>
+        <v>-210665.3960904235</v>
       </c>
     </row>
     <row r="21">
@@ -1280,16 +1280,16 @@
         <v>49</v>
       </c>
       <c r="B21" t="n">
-        <v>-127691.2826324157</v>
+        <v>-237822.855788474</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>3705.986951301983</v>
+        <v>54060.60805210926</v>
       </c>
       <c r="E21" t="n">
-        <v>-123985.2956811138</v>
+        <v>-183762.2477363648</v>
       </c>
     </row>
     <row r="22">
@@ -1297,16 +1297,16 @@
         <v>50</v>
       </c>
       <c r="B22" t="n">
-        <v>-81258.08894790092</v>
+        <v>-194582.336554206</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-8068.93331945079</v>
+        <v>39037.63837386193</v>
       </c>
       <c r="E22" t="n">
-        <v>-89327.02226735171</v>
+        <v>-155544.6981803441</v>
       </c>
     </row>
     <row r="23">
@@ -1314,16 +1314,16 @@
         <v>51</v>
       </c>
       <c r="B23" t="n">
-        <v>-34824.8952633861</v>
+        <v>-151341.817319938</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-18287.92041118844</v>
+        <v>25262.94968460235</v>
       </c>
       <c r="E23" t="n">
-        <v>-53112.81567457455</v>
+        <v>-126078.8676353357</v>
       </c>
     </row>
     <row r="24">
@@ -1331,16 +1331,16 @@
         <v>52</v>
       </c>
       <c r="B24" t="n">
-        <v>11608.2984211287</v>
+        <v>-108101.29808567</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-27102.84120372636</v>
+        <v>12667.56334026144</v>
       </c>
       <c r="E24" t="n">
-        <v>-15494.54278259765</v>
+        <v>-95433.73474540855</v>
       </c>
     </row>
     <row r="25">
@@ -1348,16 +1348,16 @@
         <v>53</v>
       </c>
       <c r="B25" t="n">
-        <v>58041.49210564351</v>
+        <v>-64860.77885140201</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-34662.40964433759</v>
+        <v>1180.858065976813</v>
       </c>
       <c r="E25" t="n">
-        <v>23379.08246130592</v>
+        <v>-63679.9207854252</v>
       </c>
     </row>
     <row r="26">
@@ -1365,16 +1365,16 @@
         <v>54</v>
       </c>
       <c r="B26" t="n">
-        <v>104474.6857901583</v>
+        <v>-21620.259617134</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-41109.29958915048</v>
+        <v>-9268.349672258742</v>
       </c>
       <c r="E26" t="n">
-        <v>63365.38620100784</v>
+        <v>-30888.60928939274</v>
       </c>
     </row>
     <row r="27">
@@ -1382,16 +1382,16 @@
         <v>55</v>
       </c>
       <c r="B27" t="n">
-        <v>150907.8794746731</v>
+        <v>21620.259617134</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-46577.99010722949</v>
+        <v>-18750.86639078331</v>
       </c>
       <c r="E27" t="n">
-        <v>104329.8893674436</v>
+        <v>2869.393226350694</v>
       </c>
     </row>
     <row r="28">
@@ -1399,16 +1399,16 @@
         <v>56</v>
       </c>
       <c r="B28" t="n">
-        <v>197341.0731591879</v>
+        <v>64860.77885140201</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-51193.28429697787</v>
+        <v>-27336.32347405757</v>
       </c>
       <c r="E28" t="n">
-        <v>146147.7888622101</v>
+        <v>37524.45537734444</v>
       </c>
     </row>
     <row r="29">
@@ -1416,16 +1416,16 @@
         <v>57</v>
       </c>
       <c r="B29" t="n">
-        <v>243774.2668437028</v>
+        <v>108101.29808567</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-55069.42018888247</v>
+        <v>-35092.51588380117</v>
       </c>
       <c r="E29" t="n">
-        <v>188704.8466548203</v>
+        <v>73008.78220186883</v>
       </c>
     </row>
     <row r="30">
@@ -1433,16 +1433,16 @@
         <v>58</v>
       </c>
       <c r="B30" t="n">
-        <v>290207.4605282175</v>
+        <v>151341.817319938</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-58309.68078603302</v>
+        <v>-42084.87005080884</v>
       </c>
       <c r="E30" t="n">
-        <v>231897.7797421845</v>
+        <v>109256.9472691292</v>
       </c>
     </row>
     <row r="31">
@@ -1450,16 +1450,16 @@
         <v>59</v>
       </c>
       <c r="B31" t="n">
-        <v>336640.6542127323</v>
+        <v>194582.336554206</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-61006.40750428708</v>
+        <v>-48376.03099362033</v>
       </c>
       <c r="E31" t="n">
-        <v>275634.2467084453</v>
+        <v>146206.3055605857</v>
       </c>
     </row>
     <row r="32">
@@ -1467,16 +1467,16 @@
         <v>60</v>
       </c>
       <c r="B32" t="n">
-        <v>383073.8478972472</v>
+        <v>237822.855788474</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-63241.32494875235</v>
+        <v>-54025.5572423669</v>
       </c>
       <c r="E32" t="n">
-        <v>319832.5229484948</v>
+        <v>183797.2985461071</v>
       </c>
     </row>
     <row r="33">
@@ -1484,16 +1484,16 @@
         <v>61</v>
       </c>
       <c r="B33" t="n">
-        <v>429507.041581762</v>
+        <v>281063.375022742</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-65086.09300642828</v>
+        <v>-59089.71138755204</v>
       </c>
       <c r="E33" t="n">
-        <v>364420.9485753337</v>
+        <v>221973.66363519</v>
       </c>
     </row>
     <row r="34">
@@ -1501,16 +1501,16 @@
         <v>62</v>
       </c>
       <c r="B34" t="n">
-        <v>475940.2352662768</v>
+        <v>324303.89425701</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-66603.01285246837</v>
+        <v>-63621.33388403049</v>
       </c>
       <c r="E34" t="n">
-        <v>409337.2224138084</v>
+        <v>260682.5603729795</v>
       </c>
     </row>
     <row r="35">
@@ -1518,16 +1518,16 @@
         <v>63</v>
       </c>
       <c r="B35" t="n">
-        <v>522373.4289507916</v>
+        <v>367544.4134912781</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-67845.82522328227</v>
+        <v>-67669.78799192734</v>
       </c>
       <c r="E35" t="n">
-        <v>454527.6037275093</v>
+        <v>299874.6254993507</v>
       </c>
     </row>
     <row r="36">
@@ -1535,16 +1535,16 @@
         <v>64</v>
       </c>
       <c r="B36" t="n">
-        <v>568806.6226353064</v>
+        <v>410784.9327255461</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-68860.55112832002</v>
+        <v>-71280.96431412169</v>
       </c>
       <c r="E36" t="n">
-        <v>499946.0715069864</v>
+        <v>339503.9684114244</v>
       </c>
     </row>
     <row r="37">
@@ -1552,16 +1552,16 @@
         <v>65</v>
       </c>
       <c r="B37" t="n">
-        <v>615239.8163198213</v>
+        <v>454025.4519598141</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-69686.33630838768</v>
+        <v>-74497.33419534676</v>
       </c>
       <c r="E37" t="n">
-        <v>545553.4800114336</v>
+        <v>379528.1177644673</v>
       </c>
     </row>
     <row r="38">
@@ -1569,16 +1569,16 @@
         <v>66</v>
       </c>
       <c r="B38" t="n">
-        <v>661673.010004336</v>
+        <v>497265.9711940821</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-70356.27073671734</v>
+        <v>-77358.04219793518</v>
       </c>
       <c r="E38" t="n">
-        <v>591316.7392676186</v>
+        <v>419907.9289961469</v>
       </c>
     </row>
     <row r="39">
@@ -1586,16 +1586,16 @@
         <v>67</v>
       </c>
       <c r="B39" t="n">
-        <v>708106.2036888509</v>
+        <v>540506.4904283501</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-70898.1630581566</v>
+        <v>-79899.028896271</v>
       </c>
       <c r="E39" t="n">
-        <v>637208.0406306942</v>
+        <v>460607.461532079</v>
       </c>
     </row>
     <row r="40">
@@ -1603,16 +1603,16 @@
         <v>68</v>
       </c>
       <c r="B40" t="n">
-        <v>754539.3973733657</v>
+        <v>583747.009662618</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-71335.25699797968</v>
+        <v>-82153.17628294621</v>
       </c>
       <c r="E40" t="n">
-        <v>683204.140375386</v>
+        <v>501593.8333796719</v>
       </c>
     </row>
     <row r="41">
@@ -1620,16 +1620,16 @@
         <v>69</v>
       </c>
       <c r="B41" t="n">
-        <v>800972.5910578805</v>
+        <v>626987.5288968862</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-71686.88248834945</v>
+        <v>-84150.46911387723</v>
       </c>
       <c r="E41" t="n">
-        <v>729285.7085695311</v>
+        <v>542837.0597830089</v>
       </c>
     </row>
     <row r="42">
@@ -1637,16 +1637,16 @@
         <v>70</v>
       </c>
       <c r="B42" t="n">
-        <v>847405.7847423953</v>
+        <v>670228.048131154</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-71969.03867611375</v>
+        <v>-85918.16650783984</v>
       </c>
       <c r="E42" t="n">
-        <v>775436.7460662816</v>
+        <v>584309.8816233142</v>
       </c>
     </row>
     <row r="43">
@@ -1654,16 +1654,16 @@
         <v>71</v>
       </c>
       <c r="B43" t="n">
-        <v>893838.97842691</v>
+        <v>713468.5673654221</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-72194.90925082751</v>
+        <v>-87480.97903767644</v>
       </c>
       <c r="E43" t="n">
-        <v>821644.0691760825</v>
+        <v>625987.5883277457</v>
       </c>
     </row>
     <row r="44">
@@ -1671,16 +1671,16 @@
         <v>72</v>
       </c>
       <c r="B44" t="n">
-        <v>940272.172111425</v>
+        <v>756709.08659969</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-72375.3128440235</v>
+        <v>-88861.24739320669</v>
       </c>
       <c r="E44" t="n">
-        <v>867896.8592674015</v>
+        <v>667847.8392064833</v>
       </c>
     </row>
     <row r="45">
@@ -1688,16 +1688,16 @@
         <v>73</v>
       </c>
       <c r="B45" t="n">
-        <v>986705.3657959397</v>
+        <v>799949.6058339581</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-72519.09277667492</v>
+        <v>-90079.11945290214</v>
       </c>
       <c r="E45" t="n">
-        <v>914186.2730192648</v>
+        <v>709870.486381056</v>
       </c>
     </row>
     <row r="46">
@@ -1705,16 +1705,16 @@
         <v>74</v>
       </c>
       <c r="B46" t="n">
-        <v>1033138.559480454</v>
+        <v>843190.1250682261</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-72633.45133643698</v>
+        <v>-91152.72327067491</v>
       </c>
       <c r="E46" t="n">
-        <v>960505.1081440174</v>
+        <v>752037.4017975512</v>
       </c>
     </row>
     <row r="47">
@@ -1722,16 +1722,16 @@
         <v>75</v>
       </c>
       <c r="B47" t="n">
-        <v>1079571.753164969</v>
+        <v>886430.6443024941</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-72724.23419631082</v>
+        <v>-92098.33406710562</v>
       </c>
       <c r="E47" t="n">
-        <v>1006847.518968659</v>
+        <v>794332.3102353885</v>
       </c>
     </row>
     <row r="48">
@@ -1739,16 +1739,16 @@
         <v>76</v>
       </c>
       <c r="B48" t="n">
-        <v>1126004.946849484</v>
+        <v>929671.1635367621</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-72796.17066715675</v>
+        <v>-92930.53381502797</v>
       </c>
       <c r="E48" t="n">
-        <v>1053208.776182327</v>
+        <v>836740.6297217342</v>
       </c>
     </row>
     <row r="49">
@@ -1756,16 +1756,16 @@
         <v>77</v>
       </c>
       <c r="B49" t="n">
-        <v>1172438.140533999</v>
+        <v>972911.6827710301</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-72853.07531165762</v>
+        <v>-93662.36243317055</v>
       </c>
       <c r="E49" t="n">
-        <v>1099585.065222341</v>
+        <v>879249.3203378596</v>
       </c>
     </row>
     <row r="50">
@@ -1773,16 +1773,16 @@
         <v>78</v>
       </c>
       <c r="B50" t="n">
-        <v>1218871.334218514</v>
+        <v>1016152.202005298</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-72898.01611991164</v>
+        <v>-94305.45995515988</v>
       </c>
       <c r="E50" t="n">
-        <v>1145973.318098602</v>
+        <v>921846.7420501382</v>
       </c>
     </row>
     <row r="51">
@@ -1790,16 +1790,16 @@
         <v>79</v>
       </c>
       <c r="B51" t="n">
-        <v>1265304.527903029</v>
+        <v>1059392.721239566</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-72933.45402141083</v>
+        <v>-94870.19933169798</v>
       </c>
       <c r="E51" t="n">
-        <v>1192371.073881618</v>
+        <v>964522.5219078681</v>
       </c>
     </row>
     <row r="52">
@@ -1807,16 +1807,16 @@
         <v>80</v>
       </c>
       <c r="B52" t="n">
-        <v>1311737.721587543</v>
+        <v>1102633.240473834</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-72961.35803334208</v>
+        <v>-95365.80975841579</v>
       </c>
       <c r="E52" t="n">
-        <v>1238776.363554201</v>
+        <v>1007267.430715418</v>
       </c>
     </row>
     <row r="53">
@@ -1824,16 +1824,16 @@
         <v>81</v>
       </c>
       <c r="B53" t="n">
-        <v>1358170.915272058</v>
+        <v>1145873.759708102</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-72983.29985630374</v>
+        <v>-95800.49060782605</v>
       </c>
       <c r="E53" t="n">
-        <v>1285187.615415754</v>
+        <v>1050073.269100276</v>
       </c>
     </row>
     <row r="54">
@@ -1841,16 +1841,16 @@
         <v>82</v>
       </c>
       <c r="B54" t="n">
-        <v>1404604.108956573</v>
+        <v>1189114.27894237</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-73000.53125025015</v>
+        <v>-96181.51618774552</v>
       </c>
       <c r="E54" t="n">
-        <v>1331603.577706323</v>
+        <v>1092932.762754624</v>
       </c>
     </row>
     <row r="55">
@@ -1858,16 +1858,16 @@
         <v>83</v>
       </c>
       <c r="B55" t="n">
-        <v>1451037.302641088</v>
+        <v>1232354.798176638</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-73014.04707193644</v>
+        <v>-96515.33165671221</v>
       </c>
       <c r="E55" t="n">
-        <v>1378023.255569151</v>
+        <v>1135839.466519926</v>
       </c>
     </row>
     <row r="56">
@@ -1875,16 +1875,16 @@
         <v>84</v>
       </c>
       <c r="B56" t="n">
-        <v>1497470.496325603</v>
+        <v>1275595.317410906</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-73024.63644003445</v>
+        <v>-96807.64050509584</v>
       </c>
       <c r="E56" t="n">
-        <v>1424445.859885568</v>
+        <v>1178787.67690581</v>
       </c>
     </row>
     <row r="57">
@@ -1892,16 +1892,16 @@
         <v>85</v>
       </c>
       <c r="B57" t="n">
-        <v>1543903.690010117</v>
+        <v>1318835.836645174</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-73032.92412036521</v>
+        <v>-97063.48406381189</v>
       </c>
       <c r="E57" t="n">
-        <v>1470870.765889752</v>
+        <v>1221772.352581362</v>
       </c>
     </row>
     <row r="58">
@@ -1909,16 +1909,16 @@
         <v>86</v>
       </c>
       <c r="B58" t="n">
-        <v>1590336.883694632</v>
+        <v>1362076.355879442</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-73039.40389284228</v>
+        <v>-97287.31353540525</v>
       </c>
       <c r="E58" t="n">
-        <v>1517297.47980179</v>
+        <v>1264789.042344037</v>
       </c>
     </row>
     <row r="59">
@@ -1926,16 +1926,16 @@
         <v>87</v>
       </c>
       <c r="B59" t="n">
-        <v>1636770.077379147</v>
+        <v>1405316.87511371</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-73044.46537290511</v>
+        <v>-97483.05505868763</v>
       </c>
       <c r="E59" t="n">
-        <v>1563725.612006242</v>
+        <v>1307833.820055022</v>
       </c>
     </row>
     <row r="60">
@@ -1943,16 +1943,16 @@
         <v>88</v>
       </c>
       <c r="B60" t="n">
-        <v>1683203.271063662</v>
+        <v>1448557.394347978</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-73048.41551106289</v>
+        <v>-97654.1683215073</v>
       </c>
       <c r="E60" t="n">
-        <v>1610154.855552599</v>
+        <v>1350903.226026471</v>
       </c>
     </row>
     <row r="61">
@@ -1960,16 +1960,16 @@
         <v>89</v>
       </c>
       <c r="B61" t="n">
-        <v>1729636.464748177</v>
+        <v>1491797.913582246</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-73051.49578142901</v>
+        <v>-97803.69922952542</v>
       </c>
       <c r="E61" t="n">
-        <v>1656584.968966748</v>
+        <v>1393994.214352721</v>
       </c>
     </row>
     <row r="62">
@@ -1977,16 +1977,16 @@
         <v>90</v>
       </c>
       <c r="B62" t="n">
-        <v>1776069.658432692</v>
+        <v>1535038.432816514</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-73053.89589006868</v>
+        <v>-97934.32712450752</v>
       </c>
       <c r="E62" t="n">
-        <v>1703015.762542623</v>
+        <v>1437104.105692007</v>
       </c>
     </row>
   </sheetData>
@@ -2040,16 +2040,16 @@
         <v>30</v>
       </c>
       <c r="B2" t="n">
-        <v>-1306195.831971614</v>
+        <v>-1354932.909375169</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>930335.3019224005</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-375860.5300492139</v>
+        <v>-1354932.909375169</v>
       </c>
     </row>
     <row r="3">
@@ -2057,16 +2057,16 @@
         <v>31</v>
       </c>
       <c r="B3" t="n">
-        <v>-1269638.433931547</v>
+        <v>-1321543.729745422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>893991.1392341049</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-375647.2946974419</v>
+        <v>-1321543.729745422</v>
       </c>
     </row>
     <row r="4">
@@ -2074,16 +2074,16 @@
         <v>32</v>
       </c>
       <c r="B4" t="n">
-        <v>-1233081.035891479</v>
+        <v>-1288154.550115674</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>857649.2401269875</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-375431.7957644919</v>
+        <v>-1288154.550115674</v>
       </c>
     </row>
     <row r="5">
@@ -2091,16 +2091,16 @@
         <v>33</v>
       </c>
       <c r="B5" t="n">
-        <v>-1196523.637851412</v>
+        <v>-1254765.370485926</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>821311.9167889578</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-375211.7210624539</v>
+        <v>-1254765.370485926</v>
       </c>
     </row>
     <row r="6">
@@ -2108,16 +2108,16 @@
         <v>34</v>
       </c>
       <c r="B6" t="n">
-        <v>-1159966.239811344</v>
+        <v>-1221376.190856178</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>784983.3112266181</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-374982.9285847259</v>
+        <v>-1221376.190856178</v>
       </c>
     </row>
     <row r="7">
@@ -2125,16 +2125,16 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>-1123408.841771276</v>
+        <v>-1187987.01122643</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>748670.4309852924</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-374738.410785984</v>
+        <v>-1187987.01122643</v>
       </c>
     </row>
     <row r="8">
@@ -2142,16 +2142,16 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>-1086851.443731209</v>
+        <v>-1154597.831596682</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>712384.5176348244</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-374466.9260963844</v>
+        <v>-1154597.831596682</v>
       </c>
     </row>
     <row r="9">
@@ -2159,16 +2159,16 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>-1050294.045691141</v>
+        <v>-1121208.651966934</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>676142.7323367553</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-374151.3133543859</v>
+        <v>-1121208.651966934</v>
       </c>
     </row>
     <row r="10">
@@ -2176,16 +2176,16 @@
         <v>38</v>
       </c>
       <c r="B10" t="n">
-        <v>-1013736.647651074</v>
+        <v>-1087819.472337186</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>639970.08486543</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-373766.5627856439</v>
+        <v>-1087819.472337186</v>
       </c>
     </row>
     <row r="11">
@@ -2193,16 +2193,16 @@
         <v>39</v>
       </c>
       <c r="B11" t="n">
-        <v>-977179.2496110062</v>
+        <v>-1054430.292707438</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>603901.4689305298</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-373277.7806804765</v>
+        <v>-1054430.292707438</v>
       </c>
     </row>
     <row r="12">
@@ -2210,16 +2210,16 @@
         <v>40</v>
       </c>
       <c r="B12" t="n">
-        <v>-940621.8515709386</v>
+        <v>-1021041.11307769</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>567983.6092683593</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-372638.2423025793</v>
+        <v>-1021041.11307769</v>
       </c>
     </row>
     <row r="13">
@@ -2227,16 +2227,16 @@
         <v>41</v>
       </c>
       <c r="B13" t="n">
-        <v>-904064.4535308711</v>
+        <v>-987651.9334479426</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>532276.6872247099</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-371787.7663061612</v>
+        <v>-987651.9334479426</v>
       </c>
     </row>
     <row r="14">
@@ -2244,16 +2244,16 @@
         <v>42</v>
       </c>
       <c r="B14" t="n">
-        <v>-867507.0554908034</v>
+        <v>-954262.7538181947</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>496855.4017335037</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-370651.6537572997</v>
+        <v>-954262.7538181947</v>
       </c>
     </row>
     <row r="15">
@@ -2261,16 +2261,16 @@
         <v>43</v>
       </c>
       <c r="B15" t="n">
-        <v>-830949.6574507359</v>
+        <v>-920873.5741884467</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>461809.2472237286</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-369140.4102270073</v>
+        <v>-920873.5741884467</v>
       </c>
     </row>
     <row r="16">
@@ -2278,16 +2278,16 @@
         <v>44</v>
       </c>
       <c r="B16" t="n">
-        <v>-794392.2594106684</v>
+        <v>-887484.3945586988</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>427241.8483538233</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-367150.4110568451</v>
+        <v>-887484.3945586988</v>
       </c>
     </row>
     <row r="17">
@@ -2295,16 +2295,16 @@
         <v>45</v>
       </c>
       <c r="B17" t="n">
-        <v>-757834.8613706008</v>
+        <v>-854095.214928951</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>393269.2766477861</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-364565.5847228147</v>
+        <v>-854095.214928951</v>
       </c>
     </row>
     <row r="18">
@@ -2312,16 +2312,16 @@
         <v>46</v>
       </c>
       <c r="B18" t="n">
-        <v>-721277.4633305332</v>
+        <v>-820706.0352992031</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>360017.3743450951</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-361260.0889854381</v>
+        <v>-820706.0352992031</v>
       </c>
     </row>
     <row r="19">
@@ -2329,16 +2329,16 @@
         <v>47</v>
       </c>
       <c r="B19" t="n">
-        <v>-684720.0652904657</v>
+        <v>-787316.8556694551</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>327618.2118836016</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-357101.8534068642</v>
+        <v>-787316.8556694551</v>
       </c>
     </row>
     <row r="20">
@@ -2346,16 +2346,16 @@
         <v>48</v>
       </c>
       <c r="B20" t="n">
-        <v>-648162.6672503981</v>
+        <v>-753927.6760397073</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>296205.8934723364</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-351956.7737780617</v>
+        <v>-753927.6760397073</v>
       </c>
     </row>
     <row r="21">
@@ -2363,16 +2363,16 @@
         <v>49</v>
       </c>
       <c r="B21" t="n">
-        <v>-611605.2692103304</v>
+        <v>-720538.4964099595</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>265911.9889053798</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>-345693.2803049507</v>
+        <v>-720538.4964099595</v>
       </c>
     </row>
     <row r="22">
@@ -2380,16 +2380,16 @@
         <v>50</v>
       </c>
       <c r="B22" t="n">
-        <v>-575047.871170263</v>
+        <v>-687149.3167802115</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>236860.9021583476</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-338186.9690119154</v>
+        <v>-687149.3167802115</v>
       </c>
     </row>
     <row r="23">
@@ -2397,16 +2397,16 @@
         <v>51</v>
       </c>
       <c r="B23" t="n">
-        <v>-538490.4731301954</v>
+        <v>-653760.1371504636</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>209165.4864166977</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-329324.9867134977</v>
+        <v>-653760.1371504636</v>
       </c>
     </row>
     <row r="24">
@@ -2414,16 +2414,16 @@
         <v>52</v>
       </c>
       <c r="B24" t="n">
-        <v>-501933.0750901279</v>
+        <v>-620370.9575207158</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>182923.1837249206</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-319009.8913652073</v>
+        <v>-620370.9575207158</v>
       </c>
     </row>
     <row r="25">
@@ -2431,16 +2431,16 @@
         <v>53</v>
       </c>
       <c r="B25" t="n">
-        <v>-465375.6770500603</v>
+        <v>-586981.7778909679</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>158212.9118004092</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-307162.7652496512</v>
+        <v>-586981.7778909679</v>
       </c>
     </row>
     <row r="26">
@@ -2448,16 +2448,16 @@
         <v>54</v>
       </c>
       <c r="B26" t="n">
-        <v>-428818.2790099927</v>
+        <v>-553592.5982612199</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>135092.8493308284</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-293725.4296791643</v>
+        <v>-553592.5982612199</v>
       </c>
     </row>
     <row r="27">
@@ -2465,16 +2465,16 @@
         <v>55</v>
       </c>
       <c r="B27" t="n">
-        <v>-392260.8809699251</v>
+        <v>-520203.4186314721</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>113599.1935637208</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>-278661.6874062044</v>
+        <v>-520203.4186314721</v>
       </c>
     </row>
     <row r="28">
@@ -2482,16 +2482,16 @@
         <v>56</v>
       </c>
       <c r="B28" t="n">
-        <v>-355703.4829298576</v>
+        <v>-486814.2390017241</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>93745.88883607497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-261957.5940937826</v>
+        <v>-486814.2390017241</v>
       </c>
     </row>
     <row r="29">
@@ -2499,16 +2499,16 @@
         <v>57</v>
       </c>
       <c r="B29" t="n">
-        <v>-319146.08488979</v>
+        <v>-453425.0593719763</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>75525.25886501973</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-243620.8260247703</v>
+        <v>-453425.0593719763</v>
       </c>
     </row>
     <row r="30">
@@ -2516,16 +2516,16 @@
         <v>58</v>
       </c>
       <c r="B30" t="n">
-        <v>-282588.6868497225</v>
+        <v>-420035.8797422284</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>58909.42391039898</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-223679.2629393235</v>
+        <v>-420035.8797422284</v>
       </c>
     </row>
     <row r="31">
@@ -2533,16 +2533,16 @@
         <v>59</v>
       </c>
       <c r="B31" t="n">
-        <v>-246031.2888096549</v>
+        <v>-386646.7001124805</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>43852.34876439899</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-202178.9400452559</v>
+        <v>-386646.7001124805</v>
       </c>
     </row>
     <row r="32">
@@ -2550,16 +2550,16 @@
         <v>60</v>
       </c>
       <c r="B32" t="n">
-        <v>-209473.8907695873</v>
+        <v>-353257.5204827326</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>30292.34921601208</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-179181.5415535752</v>
+        <v>-353257.5204827326</v>
       </c>
     </row>
     <row r="33">
@@ -2567,16 +2567,16 @@
         <v>61</v>
       </c>
       <c r="B33" t="n">
-        <v>-172916.4927295198</v>
+        <v>-319868.3408529848</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>18154.88174991602</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>-154761.6109796037</v>
+        <v>-319868.3408529848</v>
       </c>
     </row>
     <row r="34">
@@ -2584,16 +2584,16 @@
         <v>62</v>
       </c>
       <c r="B34" t="n">
-        <v>-136359.0946894522</v>
+        <v>-286479.1612232369</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>7355.451153073753</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-129003.6435363784</v>
+        <v>-286479.1612232369</v>
       </c>
     </row>
     <row r="35">
@@ -2601,16 +2601,16 @@
         <v>63</v>
       </c>
       <c r="B35" t="n">
-        <v>-99801.6966493846</v>
+        <v>-253089.9815934889</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-2197.509841869578</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-101999.2064912542</v>
+        <v>-253089.9815934889</v>
       </c>
     </row>
     <row r="36">
@@ -2618,16 +2618,16 @@
         <v>64</v>
       </c>
       <c r="B36" t="n">
-        <v>-63244.29860931703</v>
+        <v>-219700.8019637411</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-10599.90916801344</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>-73844.20777733048</v>
+        <v>-219700.8019637411</v>
       </c>
     </row>
     <row r="37">
@@ -2635,16 +2635,16 @@
         <v>65</v>
       </c>
       <c r="B37" t="n">
-        <v>-26686.90056924947</v>
+        <v>-186311.6223339932</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-17949.50407740365</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-44636.40464665311</v>
+        <v>-186311.6223339932</v>
       </c>
     </row>
     <row r="38">
@@ -2652,16 +2652,16 @@
         <v>66</v>
       </c>
       <c r="B38" t="n">
-        <v>9870.497470818098</v>
+        <v>-152922.4427042453</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-24343.71291427095</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-14473.21544345285</v>
+        <v>-152922.4427042453</v>
       </c>
     </row>
     <row r="39">
@@ -2669,16 +2669,16 @@
         <v>67</v>
       </c>
       <c r="B39" t="n">
-        <v>46427.89551088566</v>
+        <v>-119533.2630744974</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-29877.76627981515</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>16550.12923107051</v>
+        <v>-119533.2630744974</v>
       </c>
     </row>
     <row r="40">
@@ -2686,16 +2686,16 @@
         <v>68</v>
       </c>
       <c r="B40" t="n">
-        <v>82985.29355095324</v>
+        <v>-86144.0834447495</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-34643.21040821633</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>48342.08314273691</v>
+        <v>-86144.0834447495</v>
       </c>
     </row>
     <row r="41">
@@ -2703,16 +2703,16 @@
         <v>69</v>
       </c>
       <c r="B41" t="n">
-        <v>119542.6915910208</v>
+        <v>-52754.90381500161</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-38726.75631453646</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>80815.93527648432</v>
+        <v>-52754.90381500161</v>
       </c>
     </row>
     <row r="42">
@@ -2720,16 +2720,16 @@
         <v>70</v>
       </c>
       <c r="B42" t="n">
-        <v>156100.0896310884</v>
+        <v>-19365.72418525372</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-42209.45351961722</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>113890.6361114711</v>
+        <v>-19365.72418525372</v>
       </c>
     </row>
     <row r="43">
@@ -2737,16 +2737,16 @@
         <v>71</v>
       </c>
       <c r="B43" t="n">
-        <v>192657.4876711559</v>
+        <v>14023.45544449417</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-45166.15680167593</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>147491.33086948</v>
+        <v>14023.45544449417</v>
       </c>
     </row>
     <row r="44">
@@ -2754,16 +2754,16 @@
         <v>72</v>
       </c>
       <c r="B44" t="n">
-        <v>229214.8857112235</v>
+        <v>47412.63507424206</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-47665.24807158506</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>181549.6376396384</v>
+        <v>47412.63507424206</v>
       </c>
     </row>
     <row r="45">
@@ -2771,16 +2771,16 @@
         <v>73</v>
       </c>
       <c r="B45" t="n">
-        <v>265772.283751291</v>
+        <v>80801.81470398995</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-49768.57253919641</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>216003.7112120946</v>
+        <v>80801.81470398995</v>
       </c>
     </row>
     <row r="46">
@@ -2788,16 +2788,16 @@
         <v>74</v>
       </c>
       <c r="B46" t="n">
-        <v>302329.6817913586</v>
+        <v>114190.9943337378</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-51531.54816569461</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>250798.133625664</v>
+        <v>114190.9943337378</v>
       </c>
     </row>
     <row r="47">
@@ -2805,16 +2805,16 @@
         <v>75</v>
       </c>
       <c r="B47" t="n">
-        <v>338887.0798314262</v>
+        <v>147580.1739634857</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-53003.40930480098</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>285883.6705266252</v>
+        <v>147580.1739634857</v>
       </c>
     </row>
     <row r="48">
@@ -2822,16 +2822,16 @@
         <v>76</v>
       </c>
       <c r="B48" t="n">
-        <v>375444.4778714938</v>
+        <v>180969.3535932336</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-54227.54878962814</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>321216.9290818656</v>
+        <v>180969.3535932336</v>
       </c>
     </row>
     <row r="49">
@@ -2839,16 +2839,16 @@
         <v>77</v>
       </c>
       <c r="B49" t="n">
-        <v>412001.8759115613</v>
+        <v>214358.5332229815</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-55241.92696533984</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>356759.9489462215</v>
+        <v>214358.5332229815</v>
       </c>
     </row>
     <row r="50">
@@ -2856,16 +2856,16 @@
         <v>78</v>
       </c>
       <c r="B50" t="n">
-        <v>448559.2739516289</v>
+        <v>247747.7128527294</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-56079.52083889295</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>392479.753112736</v>
+        <v>247747.7128527294</v>
       </c>
     </row>
     <row r="51">
@@ -2873,16 +2873,16 @@
         <v>79</v>
       </c>
       <c r="B51" t="n">
-        <v>485116.6719916964</v>
+        <v>281136.8924824773</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-56768.79125463824</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>428347.8807370582</v>
+        <v>281136.8924824773</v>
       </c>
     </row>
     <row r="52">
@@ -2890,16 +2890,16 @@
         <v>80</v>
       </c>
       <c r="B52" t="n">
-        <v>521674.070031764</v>
+        <v>314526.0721122252</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-57334.15054296247</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>464339.9194888016</v>
+        <v>314526.0721122252</v>
       </c>
     </row>
     <row r="53">
@@ -2907,16 +2907,16 @@
         <v>81</v>
       </c>
       <c r="B53" t="n">
-        <v>558231.4680718316</v>
+        <v>347915.2517419731</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-57796.41724874909</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>500435.0508230826</v>
+        <v>347915.2517419731</v>
       </c>
     </row>
     <row r="54">
@@ -2924,16 +2924,16 @@
         <v>82</v>
       </c>
       <c r="B54" t="n">
-        <v>594788.8661118991</v>
+        <v>381304.431371721</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-58173.24821988357</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>536615.6178920156</v>
+        <v>381304.431371721</v>
       </c>
     </row>
     <row r="55">
@@ -2941,16 +2941,16 @@
         <v>83</v>
       </c>
       <c r="B55" t="n">
-        <v>631346.2641519668</v>
+        <v>414693.6110014688</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-58479.5414738692</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>572866.7226780975</v>
+        <v>414693.6110014688</v>
       </c>
     </row>
     <row r="56">
@@ -2958,16 +2958,16 @@
         <v>84</v>
       </c>
       <c r="B56" t="n">
-        <v>667903.6621920343</v>
+        <v>448082.7906312168</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-58727.80585720148</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>609175.8563348328</v>
+        <v>448082.7906312168</v>
       </c>
     </row>
     <row r="57">
@@ -2975,16 +2975,16 @@
         <v>85</v>
       </c>
       <c r="B57" t="n">
-        <v>704461.0602321018</v>
+        <v>481471.9702609646</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-58928.49559287798</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>645532.5646392239</v>
+        <v>481471.9702609646</v>
       </c>
     </row>
     <row r="58">
@@ -2992,16 +2992,16 @@
         <v>86</v>
       </c>
       <c r="B58" t="n">
-        <v>741018.4582721695</v>
+        <v>514861.1498907126</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-59090.30942189711</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>681928.1488502724</v>
+        <v>514861.1498907126</v>
       </c>
     </row>
     <row r="59">
@@ -3009,16 +3009,16 @@
         <v>87</v>
       </c>
       <c r="B59" t="n">
-        <v>777575.856312237</v>
+        <v>548250.3295204605</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-59220.45524183581</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>718355.4010704012</v>
+        <v>548250.3295204605</v>
       </c>
     </row>
     <row r="60">
@@ -3026,16 +3026,16 @@
         <v>88</v>
       </c>
       <c r="B60" t="n">
-        <v>814133.2543523046</v>
+        <v>581639.5091502083</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-59324.88199122251</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>754808.3723610821</v>
+        <v>581639.5091502083</v>
       </c>
     </row>
     <row r="61">
@@ -3043,16 +3043,16 @@
         <v>89</v>
       </c>
       <c r="B61" t="n">
-        <v>850690.6523923721</v>
+        <v>615028.6887799562</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-59408.48108377727</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>791282.1713085949</v>
+        <v>615028.6887799562</v>
       </c>
     </row>
     <row r="62">
@@ -3060,16 +3060,16 @@
         <v>90</v>
       </c>
       <c r="B62" t="n">
-        <v>887248.0504324398</v>
+        <v>648417.8684097041</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-59475.26001937404</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>827772.7904130657</v>
+        <v>648417.8684097041</v>
       </c>
     </row>
     <row r="63">
@@ -3077,16 +3077,16 @@
         <v>91</v>
       </c>
       <c r="B63" t="n">
-        <v>923805.4484725072</v>
+        <v>681807.0480394519</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-59528.49094078149</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>864276.9575317256</v>
+        <v>681807.0480394519</v>
       </c>
     </row>
     <row r="64">
@@ -3094,16 +3094,16 @@
         <v>92</v>
       </c>
       <c r="B64" t="n">
-        <v>960362.8465125748</v>
+        <v>715196.2276691998</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-59570.83691210205</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>900792.0096004728</v>
+        <v>715196.2276691998</v>
       </c>
     </row>
     <row r="65">
@@ -3111,16 +3111,16 @@
         <v>93</v>
       </c>
       <c r="B65" t="n">
-        <v>996920.2445526423</v>
+        <v>748585.4072989478</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-59604.4586045144</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>937315.785948128</v>
+        <v>748585.4072989478</v>
       </c>
     </row>
     <row r="66">
@@ -3128,16 +3128,16 @@
         <v>94</v>
       </c>
       <c r="B66" t="n">
-        <v>1033477.64259271</v>
+        <v>781974.5869286957</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-59631.10391872341</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>973846.5386739866</v>
+        <v>781974.5869286957</v>
       </c>
     </row>
     <row r="67">
@@ -3145,16 +3145,16 @@
         <v>95</v>
       </c>
       <c r="B67" t="n">
-        <v>1070035.040632778</v>
+        <v>815363.7665584435</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-59652.1828763704</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>1010382.857756407</v>
+        <v>815363.7665584435</v>
       </c>
     </row>
     <row r="68">
@@ -3162,16 +3162,16 @@
         <v>96</v>
       </c>
       <c r="B68" t="n">
-        <v>1106592.438672845</v>
+        <v>848752.9461881914</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-59668.82989386097</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1046923.608778984</v>
+        <v>848752.9461881914</v>
       </c>
     </row>
     <row r="69">
@@ -3179,16 +3179,16 @@
         <v>97</v>
       </c>
       <c r="B69" t="n">
-        <v>1143149.836712913</v>
+        <v>882142.1258179394</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-59681.95532609953</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>1083467.881386813</v>
+        <v>882142.1258179394</v>
       </c>
     </row>
     <row r="70">
@@ -3196,16 +3196,16 @@
         <v>98</v>
       </c>
       <c r="B70" t="n">
-        <v>1179707.23475298</v>
+        <v>915531.3054476872</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-59692.28794491194</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>1120014.946808068</v>
+        <v>915531.3054476872</v>
       </c>
     </row>
     <row r="71">
@@ -3213,16 +3213,16 @@
         <v>99</v>
       </c>
       <c r="B71" t="n">
-        <v>1216264.632793048</v>
+        <v>948920.485077435</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-59700.409804658</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>1156564.22298839</v>
+        <v>948920.485077435</v>
       </c>
     </row>
     <row r="72">
@@ -3230,16 +3230,16 @@
         <v>100</v>
       </c>
       <c r="B72" t="n">
-        <v>1252822.030833115</v>
+        <v>982309.664707183</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-59706.78475025648</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>1193115.246082859</v>
+        <v>982309.664707183</v>
       </c>
     </row>
   </sheetData>
@@ -3293,16 +3293,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-914858.7112627907</v>
+        <v>-838957.4106661081</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>345872.5662907564</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-568986.1449720343</v>
+        <v>-838957.4106661081</v>
       </c>
     </row>
     <row r="3">
@@ -3310,16 +3310,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-855336.3487863566</v>
+        <v>-778251.3751620481</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>299200.4480478451</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-556135.9007385115</v>
+        <v>-778251.3751620481</v>
       </c>
     </row>
     <row r="4">
@@ -3327,16 +3327,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-795813.9863099226</v>
+        <v>-717545.3396579883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>255704.7713610455</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-540109.2149488772</v>
+        <v>-717545.3396579883</v>
       </c>
     </row>
     <row r="5">
@@ -3344,16 +3344,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-736291.6238334887</v>
+        <v>-656839.3041539284</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>215614.7285657481</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-520676.8952677405</v>
+        <v>-656839.3041539284</v>
       </c>
     </row>
     <row r="6">
@@ -3361,16 +3361,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-676769.2613570547</v>
+        <v>-596133.2686498684</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>179068.1497368951</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-497701.1116201596</v>
+        <v>-596133.2686498684</v>
       </c>
     </row>
     <row r="7">
@@ -3378,16 +3378,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-617246.8988806206</v>
+        <v>-535427.2331458085</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>146110.3401321596</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-471136.558748461</v>
+        <v>-535427.2331458085</v>
       </c>
     </row>
     <row r="8">
@@ -3395,16 +3395,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-557724.5364041866</v>
+        <v>-474721.1976417486</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>116699.898836453</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-441024.6375677336</v>
+        <v>-474721.1976417486</v>
       </c>
     </row>
     <row r="9">
@@ -3412,16 +3412,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-498202.1739277526</v>
+        <v>-414015.1621376887</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>90719.74354847085</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-407482.4303792818</v>
+        <v>-414015.1621376887</v>
       </c>
     </row>
     <row r="10">
@@ -3429,16 +3429,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-438679.8114513186</v>
+        <v>-353309.1266336287</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>67991.3679236014</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-370688.4435277171</v>
+        <v>-353309.1266336287</v>
       </c>
     </row>
     <row r="11">
@@ -3446,16 +3446,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-379157.4489748845</v>
+        <v>-292603.0911295689</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>48290.47299898026</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-330866.9759759043</v>
+        <v>-292603.0911295689</v>
       </c>
     </row>
     <row r="12">
@@ -3463,16 +3463,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-319635.0864984505</v>
+        <v>-231897.0556255089</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>31362.42996768213</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-288272.6565307684</v>
+        <v>-231897.0556255089</v>
       </c>
     </row>
     <row r="13">
@@ -3480,16 +3480,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-260112.7240220165</v>
+        <v>-171191.020121449</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>16936.44048009732</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-243176.2835419192</v>
+        <v>-171191.020121449</v>
       </c>
     </row>
     <row r="14">
@@ -3497,16 +3497,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-200590.3615455825</v>
+        <v>-110484.9846173891</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>4737.678061235252</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-195852.6834843472</v>
+        <v>-110484.9846173891</v>
       </c>
     </row>
     <row r="15">
@@ -3514,16 +3514,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-141067.9990691485</v>
+        <v>-49778.94911332915</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-5502.935911081853</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-146570.9349802303</v>
+        <v>-49778.94911332915</v>
       </c>
     </row>
     <row r="16">
@@ -3531,16 +3531,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-81545.63659271445</v>
+        <v>10927.08639073077</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-14041.37519930763</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-95587.01179202208</v>
+        <v>10927.08639073077</v>
       </c>
     </row>
     <row r="17">
@@ -3548,16 +3548,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-22023.27411628044</v>
+        <v>71633.12189479069</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-21115.41631717747</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-43138.69043345792</v>
+        <v>71633.12189479069</v>
       </c>
     </row>
     <row r="18">
@@ -3565,16 +3565,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>37499.08836015358</v>
+        <v>132339.1573988506</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-26941.52791599102</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>10557.56044416256</v>
+        <v>132339.1573988506</v>
       </c>
     </row>
     <row r="19">
@@ -3582,16 +3582,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>97021.4508365876</v>
+        <v>193045.1929029105</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-31713.39653716595</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>65308.05429942165</v>
+        <v>193045.1929029105</v>
       </c>
     </row>
     <row r="20">
@@ -3599,16 +3599,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>156543.8133130216</v>
+        <v>253751.2284069704</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-35601.73034751623</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>120942.0829655054</v>
+        <v>253751.2284069704</v>
       </c>
     </row>
     <row r="21">
@@ -3616,16 +3616,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>216066.1757894557</v>
+        <v>314457.2639110303</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-38755.00316353633</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>177311.1726259193</v>
+        <v>314457.2639110303</v>
       </c>
     </row>
     <row r="22">
@@ -3633,16 +3633,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>275588.5382658896</v>
+        <v>375163.2994150903</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-41300.84174126007</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>234287.6965246295</v>
+        <v>375163.2994150903</v>
       </c>
     </row>
     <row r="23">
@@ -3650,16 +3650,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>335110.9007423237</v>
+        <v>435869.3349191502</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-43347.8092813648</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>291763.0914609589</v>
+        <v>435869.3349191502</v>
       </c>
     </row>
     <row r="24">
@@ -3667,16 +3667,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>394633.2632187577</v>
+        <v>496575.3704232101</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-44987.38975177654</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>349645.8734669812</v>
+        <v>496575.3704232101</v>
       </c>
     </row>
     <row r="25">
@@ -3684,16 +3684,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>454155.6256951917</v>
+        <v>557281.4059272701</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-46296.02603393991</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>407859.5996612518</v>
+        <v>557281.4059272701</v>
       </c>
     </row>
     <row r="26">
@@ -3701,16 +3701,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>513677.9881716256</v>
+        <v>617987.4414313299</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-47337.10728289712</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>466340.8808887285</v>
+        <v>617987.4414313299</v>
       </c>
     </row>
     <row r="27">
@@ -3718,16 +3718,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>573200.3506480597</v>
+        <v>678693.4769353899</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-48162.83607351222</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>525037.5145745475</v>
+        <v>678693.4769353899</v>
       </c>
     </row>
     <row r="28">
@@ -3735,16 +3735,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>632722.7131244937</v>
+        <v>739399.5124394498</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-48815.9337813206</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>583906.7793431731</v>
+        <v>739399.5124394498</v>
       </c>
     </row>
     <row r="29">
@@ -3752,16 +3752,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>692245.0756009278</v>
+        <v>800105.5479435096</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-49331.16377286227</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>642913.9118280655</v>
+        <v>800105.5479435096</v>
       </c>
     </row>
     <row r="30">
@@ -3769,16 +3769,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>751767.4380773618</v>
+        <v>860811.5834475696</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-49736.66725973382</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>702030.770817628</v>
+        <v>860811.5834475696</v>
       </c>
     </row>
     <row r="31">
@@ -3786,16 +3786,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>811289.8005537959</v>
+        <v>921517.6189516296</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-50055.11713287116</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>761234.6834209247</v>
+        <v>921517.6189516296</v>
       </c>
     </row>
     <row r="32">
@@ -3803,16 +3803,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>870812.1630302299</v>
+        <v>982223.6544556894</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-50304.70175449022</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>820507.4612757396</v>
+        <v>982223.6544556894</v>
       </c>
     </row>
     <row r="33">
@@ -3820,16 +3820,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>930334.5255066638</v>
+        <v>1042929.689959749</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-50499.95446474998</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>879834.5710419138</v>
+        <v>1042929.689959749</v>
       </c>
     </row>
     <row r="34">
@@ -3837,16 +3837,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>989856.8879830979</v>
+        <v>1103635.725463809</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-50652.4462440052</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>939204.4417390927</v>
+        <v>1103635.725463809</v>
       </c>
     </row>
     <row r="35">
@@ -3854,16 +3854,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>1049379.250459532</v>
+        <v>1164341.760967869</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-50771.35919966833</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>998607.8912598637</v>
+        <v>1164341.760967869</v>
       </c>
     </row>
     <row r="36">
@@ -3871,16 +3871,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>1108901.612935966</v>
+        <v>1225047.796471929</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-50863.95782067792</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1058037.655115288</v>
+        <v>1225047.796471929</v>
       </c>
     </row>
     <row r="37">
@@ -3888,16 +3888,16 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>1168423.9754124</v>
+        <v>1285753.831975989</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-50935.97364103047</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1117488.001771369</v>
+        <v>1285753.831975989</v>
       </c>
     </row>
     <row r="38">
@@ -3905,16 +3905,16 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>1227946.337888834</v>
+        <v>1346459.867480049</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-50991.91735228252</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1176954.420536551</v>
+        <v>1346459.867480049</v>
       </c>
     </row>
     <row r="39">
@@ -3922,16 +3922,16 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>1287468.700365268</v>
+        <v>1407165.902984109</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-51035.33069586606</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1236433.369669402</v>
+        <v>1407165.902984109</v>
       </c>
     </row>
     <row r="40">
@@ -3939,16 +3939,16 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>1346991.062841702</v>
+        <v>1467871.938488169</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-51068.98877753902</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1295922.074064163</v>
+        <v>1467871.938488169</v>
       </c>
     </row>
     <row r="41">
@@ -3956,16 +3956,16 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>1406513.425318136</v>
+        <v>1528577.973992229</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-51095.06185800699</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1355418.363460129</v>
+        <v>1528577.973992229</v>
       </c>
     </row>
     <row r="42">
@@ -3973,16 +3973,16 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>1466035.78779457</v>
+        <v>1589284.009496289</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-51115.24423030461</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1414920.543564265</v>
+        <v>1589284.009496289</v>
       </c>
     </row>
     <row r="43">
@@ -3990,16 +3990,16 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>1525558.150271004</v>
+        <v>1649990.045000348</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-51130.85651596403</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1474427.29375504</v>
+        <v>1649990.045000348</v>
       </c>
     </row>
     <row r="44">
@@ -4007,16 +4007,16 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>1585080.512747438</v>
+        <v>1710696.080504408</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-51142.92660192135</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1533937.586145517</v>
+        <v>1710696.080504408</v>
       </c>
     </row>
     <row r="45">
@@ -4024,16 +4024,16 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>1644602.875223872</v>
+        <v>1771402.116008468</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-51152.25349169877</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1593450.621732173</v>
+        <v>1771402.116008468</v>
       </c>
     </row>
     <row r="46">
@@ -4041,16 +4041,16 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1704125.237700306</v>
+        <v>1832108.151512528</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-51159.45754477382</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1652965.780155532</v>
+        <v>1832108.151512528</v>
       </c>
     </row>
     <row r="47">
@@ -4058,16 +4058,16 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>1763647.60017674</v>
+        <v>1892814.187016588</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-51165.0199113191</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>1712482.580265421</v>
+        <v>1892814.187016588</v>
       </c>
     </row>
   </sheetData>
@@ -4121,16 +4121,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-671196.6210704048</v>
+        <v>-637370.3534764132</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>402142.49642935</v>
+        <v>310410.3746481487</v>
       </c>
       <c r="E2" t="n">
-        <v>-269054.1246410548</v>
+        <v>-326959.9788282645</v>
       </c>
     </row>
     <row r="3">
@@ -4138,16 +4138,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-602143.4707545195</v>
+        <v>-569129.4162733712</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>338370.9808064271</v>
+        <v>260413.4498757628</v>
       </c>
       <c r="E3" t="n">
-        <v>-263772.4899480924</v>
+        <v>-308715.9663976084</v>
       </c>
     </row>
     <row r="4">
@@ -4155,16 +4155,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-533090.3204386343</v>
+        <v>-500888.4790703291</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>277471.7465327982</v>
+        <v>213902.962343973</v>
       </c>
       <c r="E4" t="n">
-        <v>-255618.5739058361</v>
+        <v>-286985.5167263561</v>
       </c>
     </row>
     <row r="5">
@@ -4172,16 +4172,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-464037.1701227489</v>
+        <v>-432647.541867287</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>220324.0416117863</v>
+        <v>171014.066250351</v>
       </c>
       <c r="E5" t="n">
-        <v>-243713.1285109626</v>
+        <v>-261633.475616936</v>
       </c>
     </row>
     <row r="6">
@@ -4189,16 +4189,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-394984.0198068637</v>
+        <v>-364406.6046642449</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>167748.1514120823</v>
+        <v>131802.129831046</v>
       </c>
       <c r="E6" t="n">
-        <v>-227235.8683947813</v>
+        <v>-232604.4748331989</v>
       </c>
     </row>
     <row r="7">
@@ -4206,16 +4206,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-325930.8694909784</v>
+        <v>-296165.6674612028</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>120405.9840298489</v>
+        <v>96247.50789685547</v>
       </c>
       <c r="E7" t="n">
-        <v>-205524.8854611295</v>
+        <v>-199918.1595643474</v>
       </c>
     </row>
     <row r="8">
@@ -4223,16 +4223,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-256877.7191750931</v>
+        <v>-227924.7302581607</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>78725.8406358597</v>
+        <v>64264.04326782994</v>
       </c>
       <c r="E8" t="n">
-        <v>-178151.8785392334</v>
+        <v>-163660.6869903308</v>
       </c>
     </row>
     <row r="9">
@@ -4240,16 +4240,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-187824.5688592079</v>
+        <v>-159683.7930551187</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>42865.0050889218</v>
+        <v>35709.93807499253</v>
       </c>
       <c r="E9" t="n">
-        <v>-144959.563770286</v>
+        <v>-123973.8549801262</v>
       </c>
     </row>
     <row r="10">
@@ -4257,16 +4257,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-118771.4185433226</v>
+        <v>-91442.85585207661</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>12713.0728297227</v>
+        <v>10399.7390515657</v>
       </c>
       <c r="E10" t="n">
-        <v>-106058.3457135999</v>
+        <v>-81043.11680051091</v>
       </c>
     </row>
     <row r="11">
@@ -4274,16 +4274,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-49718.26822743731</v>
+        <v>-23201.91864903453</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-12070.56414585823</v>
+        <v>-11883.60981592959</v>
       </c>
       <c r="E11" t="n">
-        <v>-61788.83237329554</v>
+        <v>-35085.52846496413</v>
       </c>
     </row>
     <row r="12">
@@ -4291,16 +4291,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>19334.88208844795</v>
+        <v>45039.01855400753</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-31997.40846370578</v>
+        <v>-31377.43745777605</v>
       </c>
       <c r="E12" t="n">
-        <v>-12662.52637525782</v>
+        <v>13661.58109623149</v>
       </c>
     </row>
     <row r="13">
@@ -4308,16 +4308,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>88388.03240433322</v>
+        <v>113279.9557570496</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-47682.45152852518</v>
+        <v>-48329.26994060729</v>
       </c>
       <c r="E13" t="n">
-        <v>40705.58087580805</v>
+        <v>64950.6858164423</v>
       </c>
     </row>
     <row r="14">
@@ -4325,16 +4325,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>157441.1827202185</v>
+        <v>181520.8929600917</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-59780.35106370778</v>
+        <v>-62988.30778214676</v>
       </c>
       <c r="E14" t="n">
-        <v>97660.83165651071</v>
+        <v>118532.5851779449</v>
       </c>
     </row>
     <row r="15">
@@ -4342,16 +4342,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>226494.3330361038</v>
+        <v>249761.8301631338</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-68932.98222069713</v>
+        <v>-75598.56561138935</v>
       </c>
       <c r="E15" t="n">
-        <v>157561.3508154066</v>
+        <v>174163.2645517444</v>
       </c>
     </row>
     <row r="16">
@@ -4359,16 +4359,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>295547.483351989</v>
+        <v>318002.7673661758</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-75731.95202757631</v>
+        <v>-86393.6411115244</v>
       </c>
       <c r="E16" t="n">
-        <v>219815.5313244127</v>
+        <v>231609.1262546514</v>
       </c>
     </row>
     <row r="17">
@@ -4376,16 +4376,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>364600.6336678743</v>
+        <v>386243.7045692179</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-80696.20122286669</v>
+        <v>-95592.9833165</v>
       </c>
       <c r="E17" t="n">
-        <v>283904.4324450076</v>
+        <v>290650.7212527179</v>
       </c>
     </row>
     <row r="18">
@@ -4393,16 +4393,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>433653.7839837595</v>
+        <v>454484.64177226</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-84262.54841393813</v>
+        <v>-103399.4727408348</v>
       </c>
       <c r="E18" t="n">
-        <v>349391.2355698214</v>
+        <v>351085.1690314251</v>
       </c>
     </row>
     <row r="19">
@@ -4410,16 +4410,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>502706.9342996448</v>
+        <v>522725.578975302</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-86785.95793191878</v>
+        <v>-109998.0995202294</v>
       </c>
       <c r="E19" t="n">
-        <v>415920.976367726</v>
+        <v>412727.4794550726</v>
       </c>
     </row>
     <row r="20">
@@ -4427,16 +4427,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>571760.0846155301</v>
+        <v>590966.516178344</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-88546.16881287773</v>
+        <v>-115555.5225301925</v>
       </c>
       <c r="E20" t="n">
-        <v>483213.9158026524</v>
+        <v>475410.9936481515</v>
       </c>
     </row>
     <row r="21">
@@ -4444,16 +4444,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>640813.2349314153</v>
+        <v>659207.4533813862</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-89757.75731534006</v>
+        <v>-120220.3048952044</v>
       </c>
       <c r="E21" t="n">
-        <v>551055.4776160752</v>
+        <v>538987.1484861819</v>
       </c>
     </row>
     <row r="22">
@@ -4461,16 +4461,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>709866.3852473006</v>
+        <v>727448.3905844283</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-90581.40253447177</v>
+        <v>-124123.6432125356</v>
       </c>
       <c r="E22" t="n">
-        <v>619284.9827128288</v>
+        <v>603324.7473718928</v>
       </c>
     </row>
     <row r="23">
@@ -4478,16 +4478,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>778919.5355631858</v>
+        <v>795689.3277874703</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-91134.85565082688</v>
+        <v>-127380.4343953814</v>
       </c>
       <c r="E23" t="n">
-        <v>687784.679912359</v>
+        <v>668308.8933920889</v>
       </c>
     </row>
     <row r="24">
@@ -4495,16 +4495,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>847972.685879071</v>
+        <v>863930.2649905123</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-91502.74565803932</v>
+        <v>-130090.5518170293</v>
       </c>
       <c r="E24" t="n">
-        <v>756469.9402210317</v>
+        <v>733839.713173483</v>
       </c>
     </row>
     <row r="25">
@@ -4512,16 +4512,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>917025.8361949564</v>
+        <v>932171.2021935545</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-91744.83336084351</v>
+        <v>-132340.2290833753</v>
       </c>
       <c r="E25" t="n">
-        <v>825281.002834113</v>
+        <v>799830.9731101792</v>
       </c>
     </row>
     <row r="26">
@@ -4529,16 +4529,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>986078.9865108416</v>
+        <v>1000412.139396597</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-91902.64787197387</v>
+        <v>-134203.4738666353</v>
       </c>
       <c r="E26" t="n">
-        <v>894176.3386388677</v>
+        <v>866208.6655299612</v>
       </c>
     </row>
     <row r="27">
@@ -4546,16 +4546,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>1055132.136826727</v>
+        <v>1068653.076599639</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-92004.62999549409</v>
+        <v>-135743.4550836609</v>
       </c>
       <c r="E27" t="n">
-        <v>963127.5068312327</v>
+        <v>932909.6215159778</v>
       </c>
     </row>
     <row r="28">
@@ -4563,16 +4563,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>1124185.287142612</v>
+        <v>1136894.013802681</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-92069.9987102676</v>
+        <v>-137013.8240749925</v>
       </c>
       <c r="E28" t="n">
-        <v>1032115.288432345</v>
+        <v>999880.1897276882</v>
       </c>
     </row>
     <row r="29">
@@ -4580,16 +4580,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>1193238.437458497</v>
+        <v>1205134.951005723</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-92111.58343448557</v>
+        <v>-138059.9444377709</v>
       </c>
       <c r="E29" t="n">
-        <v>1101126.854024012</v>
+        <v>1067075.006567952</v>
       </c>
     </row>
     <row r="30">
@@ -4597,16 +4597,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>1262291.587774383</v>
+        <v>1273375.888208765</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-92137.8527746625</v>
+        <v>-138920.0160841833</v>
       </c>
       <c r="E30" t="n">
-        <v>1170153.73499972</v>
+        <v>1134455.872124582</v>
       </c>
     </row>
     <row r="31">
@@ -4614,16 +4614,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>1331344.738090268</v>
+        <v>1341616.825411807</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-92154.33950891344</v>
+        <v>-139626.0873341532</v>
       </c>
       <c r="E31" t="n">
-        <v>1239190.398581355</v>
+        <v>1201990.738077654</v>
       </c>
     </row>
     <row r="32">
@@ -4631,16 +4631,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>1400397.888406153</v>
+        <v>1409857.762614849</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-92164.62428940416</v>
+        <v>-140204.9548366376</v>
       </c>
       <c r="E32" t="n">
-        <v>1308233.264116749</v>
+        <v>1269652.807778212</v>
       </c>
     </row>
     <row r="33">
@@ -4648,16 +4648,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>1469451.038722039</v>
+        <v>1478098.699817891</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-92171.00431024373</v>
+        <v>-140678.9552683685</v>
       </c>
       <c r="E33" t="n">
-        <v>1377280.034411795</v>
+        <v>1337419.744549523</v>
       </c>
     </row>
     <row r="34">
@@ -4665,16 +4665,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>1538504.189037924</v>
+        <v>1546339.637020933</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-92174.94158238705</v>
+        <v>-141066.6554668855</v>
       </c>
       <c r="E34" t="n">
-        <v>1446329.247455537</v>
+        <v>1405272.981554048</v>
       </c>
     </row>
     <row r="35">
@@ -4682,16 +4682,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>1607557.339353809</v>
+        <v>1614580.574223975</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-92177.35973239633</v>
+        <v>-141383.4492524743</v>
       </c>
       <c r="E35" t="n">
-        <v>1515379.979621412</v>
+        <v>1473197.124971501</v>
       </c>
     </row>
     <row r="36">
@@ -4699,16 +4699,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>1676610.489669694</v>
+        <v>1682821.511427017</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-92178.8383064426</v>
+        <v>-141642.0699645763</v>
       </c>
       <c r="E36" t="n">
-        <v>1584431.651363252</v>
+        <v>1541179.441462441</v>
       </c>
     </row>
   </sheetData>
